--- a/get_resolving/result.xlsx
+++ b/get_resolving/result.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="65">
   <si>
     <t>Peliculas Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-B10/mpegts</t>
+    <t>http://x.x.x.x:80/xxxxxxx</t>
   </si>
   <si>
     <t>1024x576</t>
@@ -35,162 +35,84 @@
     <t>Discovery Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-B12/mpegts</t>
-  </si>
-  <si>
     <t>CINEMAX HD Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-F07/mpegts</t>
-  </si>
-  <si>
     <t>HBO East Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-F14/mpegts</t>
-  </si>
-  <si>
     <t>History Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-F15/mpegts</t>
-  </si>
-  <si>
     <t>Peru Magico</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G07/mpegts</t>
-  </si>
-  <si>
     <t>Telemundo East Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G09/mpegts</t>
-  </si>
-  <si>
     <t>Mega HD Spanish</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-J07/mpegts</t>
-  </si>
-  <si>
     <t>Food HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-F03/mpegts</t>
-  </si>
-  <si>
     <t>TV Venezuela</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G03/mpegts</t>
-  </si>
-  <si>
     <t>NUESTRATELE NOTICIAS 24</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G06/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">TV Chile </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G10/mpegts</t>
-  </si>
-  <si>
     <t>Telefe</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-I05/mpegts</t>
-  </si>
-  <si>
     <t>720x480</t>
   </si>
   <si>
     <t>EC TV</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-I15/mpegts</t>
-  </si>
-  <si>
     <t>Action Max</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-A10/mpegts</t>
-  </si>
-  <si>
     <t>5 Star Max HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-B14/mpegts</t>
-  </si>
-  <si>
     <t>Fairchild 2</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-B16/mpegts</t>
-  </si>
-  <si>
     <t>Family HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-C03/mpegts</t>
-  </si>
-  <si>
     <t>More Max HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-C07/mpegts</t>
-  </si>
-  <si>
     <t>Sportsnet World</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-C12/mpegts</t>
-  </si>
-  <si>
     <t>Treehouse</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-C14/mpegts</t>
-  </si>
-  <si>
     <t>Fairchild East</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-C16/mpegts</t>
-  </si>
-  <si>
     <t>Bet HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-D01/mpegts</t>
-  </si>
-  <si>
     <t>Vision HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-D11/mpegts</t>
-  </si>
-  <si>
     <t>Nickelodeon HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-D12/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disney XD </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-D13/mpegts</t>
-  </si>
-  <si>
     <t>CP24</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-D15/mpegts</t>
-  </si>
-  <si>
     <t>1280x720</t>
   </si>
   <si>
@@ -200,184 +122,94 @@
     <t>ICI French</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-F04/mpegts</t>
-  </si>
-  <si>
     <t>HBO Comedy</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G02/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">HBO East  </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G04/mpegts</t>
-  </si>
-  <si>
     <t>Tru Tv</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G05/mpegts</t>
-  </si>
-  <si>
     <t>1920x1080</t>
   </si>
   <si>
     <t xml:space="preserve">HBO Family </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G11/mpegts</t>
-  </si>
-  <si>
     <t>HBO Zone</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G12/mpegts</t>
-  </si>
-  <si>
     <t>HBO Signature</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G13/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hallmark </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-G16/mpegts</t>
-  </si>
-  <si>
     <t>Teletoon</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-H03/mpegts</t>
-  </si>
-  <si>
     <t>HIFI</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-H04/mpegts</t>
-  </si>
-  <si>
     <t>Cooking HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-H08/mpegts</t>
-  </si>
-  <si>
     <t>CBC Halifax</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-J10/mpegts</t>
-  </si>
-  <si>
     <t>CTV Halifax</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-J11/mpegts</t>
-  </si>
-  <si>
     <t>WWE HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-J13/mpegts</t>
-  </si>
-  <si>
     <t>Bein Sports HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-J14/mpegts</t>
-  </si>
-  <si>
     <t>CANAL D French</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K05/mpegts</t>
-  </si>
-  <si>
     <t>Life HD</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K06/mpegts</t>
-  </si>
-  <si>
     <t>Cartoon Network</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K09/mpegts</t>
-  </si>
-  <si>
     <t>ABC HD EAST</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K10/mpegts</t>
-  </si>
-  <si>
     <t>Sportsnet Pacific</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K12/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTV NEWS </t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-K16/mpegts</t>
-  </si>
-  <si>
     <t>TMN 2</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L01/mpegts</t>
-  </si>
-  <si>
     <t>TMN 3</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L02/mpegts</t>
-  </si>
-  <si>
     <t>MLB Network</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L03/mpegts</t>
-  </si>
-  <si>
     <t>Discovery HD Canada</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L04/mpegts</t>
-  </si>
-  <si>
     <t>YTV</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L05/mpegts</t>
-  </si>
-  <si>
     <t>TMN 1</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L06/mpegts</t>
-  </si>
-  <si>
     <t>NBC Sports</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L13/mpegts</t>
-  </si>
-  <si>
     <t>Unimas</t>
   </si>
   <si>
-    <t>http://x.x.x.x:80/samfml/HD-L15/mpegts</t>
-  </si>
-  <si>
     <t xml:space="preserve">TMC East </t>
-  </si>
-  <si>
-    <t>http://x.x.x.x:80/samfml/HD-L16/mpegts</t>
   </si>
 </sst>
 </file>
@@ -390,12 +222,27 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,40 +253,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,6 +275,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -465,9 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,14 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -496,11 +314,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,6 +367,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -559,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,6 +578,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -760,15 +600,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,21 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +646,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -853,148 +678,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,11 +1173,14 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1376,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1390,10 +1218,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1407,10 +1235,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1424,10 +1252,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1441,10 +1269,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1458,10 +1286,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1475,10 +1303,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1492,10 +1320,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1509,10 +1337,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1526,10 +1354,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1543,10 +1371,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1560,13 +1388,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1577,10 +1405,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1594,10 +1422,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1611,10 +1439,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1628,10 +1456,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1645,10 +1473,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1662,10 +1490,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1679,10 +1507,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1696,10 +1524,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1713,10 +1541,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1730,10 +1558,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1747,10 +1575,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1764,10 +1592,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1781,10 +1609,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1798,16 +1626,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1815,10 +1643,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1832,10 +1660,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1849,10 +1677,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1866,13 +1694,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -1883,13 +1711,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1900,13 +1728,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1917,13 +1745,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1934,10 +1762,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1951,10 +1779,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1968,10 +1796,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1985,13 +1813,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -2002,10 +1830,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2019,10 +1847,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2036,16 +1864,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -2053,10 +1881,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2070,16 +1898,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -2087,16 +1915,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2104,16 +1932,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2121,16 +1949,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2138,16 +1966,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2155,16 +1983,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2172,10 +2000,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2189,10 +2017,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2206,16 +2034,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2223,10 +2051,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2240,10 +2068,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2257,10 +2085,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2274,16 +2102,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2291,10 +2119,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -2308,13 +2136,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>

--- a/get_resolving/result.xlsx
+++ b/get_resolving/result.xlsx
@@ -219,8 +219,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,7 +233,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,18 +261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,25 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,17 +300,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,8 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,16 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,49 +384,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,91 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,21 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -600,6 +585,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +652,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -660,31 +675,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
